--- a/Quantitative Variables Assessed in Third-Party Contracts.xlsx
+++ b/Quantitative Variables Assessed in Third-Party Contracts.xlsx
@@ -60,7 +60,7 @@
     <t xml:space="preserve">    Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">    2</t>
+    <t xml:space="preserve">    999</t>
   </si>
   <si>
     <t>Pricing per head/credit hour</t>

--- a/Quantitative Variables Assessed in Third-Party Contracts.xlsx
+++ b/Quantitative Variables Assessed in Third-Party Contracts.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve"> Quantitative Variables Assessed in Third-Party Contracts </t>
   </si>
   <si>
-    <t xml:space="preserve"> 2 represents missing data </t>
+    <t xml:space="preserve"> 999 represents missing data </t>
   </si>
 </sst>
 </file>
